--- a/data/_ara/tta_list.xlsx
+++ b/data/_ara/tta_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itnote/AppKang/app/python/colaborator/data/_ara/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D780C2D-AA3A-754E-9CD6-70CFFC23E4D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0397DA8D-A644-1144-AE5A-61DD7766922E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55560" yWindow="1400" windowWidth="29220" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42040" yWindow="580" windowWidth="29220" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시설정보" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>정방폭포</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -52,25 +49,13 @@
     <t>07</t>
   </si>
   <si>
-    <t>감귤박물관</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
-    <t>용머리해안</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
-    <t>산방산 암벽식물지대</t>
-  </si>
-  <si>
     <t>04</t>
-  </si>
-  <si>
-    <t>천제연폭포</t>
   </si>
   <si>
     <t>05</t>
@@ -179,12 +164,27 @@
   <si>
     <t>박병관</t>
   </si>
+  <si>
+    <t>택시운전사</t>
+  </si>
+  <si>
+    <t>남한산성</t>
+  </si>
+  <si>
+    <t>킹스맨</t>
+  </si>
+  <si>
+    <t>범죄도시</t>
+  </si>
+  <si>
+    <t>스피크</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -231,8 +231,15 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,12 +254,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,16 +334,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,7 +660,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -674,10 +672,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -696,8 +694,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="19">
-      <c r="A2" s="11" t="s">
-        <v>40</v>
+      <c r="A2" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B2" s="6">
         <v>2.5</v>
@@ -708,19 +706,19 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
+      <c r="E2" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19">
-      <c r="A3" s="11" t="s">
-        <v>40</v>
+      <c r="A3" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="6">
         <v>3.5</v>
@@ -729,21 +727,21 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19">
-      <c r="A4" s="11" t="s">
-        <v>40</v>
+      <c r="A4" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -752,21 +750,21 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19">
-      <c r="A5" s="11" t="s">
-        <v>40</v>
+      <c r="A5" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="6">
         <v>3.5</v>
@@ -775,21 +773,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19">
-      <c r="A6" s="11" t="s">
-        <v>40</v>
+      <c r="A6" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="6">
         <v>2.5</v>
@@ -798,21 +796,21 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19">
-      <c r="A7" s="12" t="s">
-        <v>41</v>
+      <c r="A7" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -821,21 +819,21 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19">
-      <c r="A8" s="12" t="s">
-        <v>41</v>
+      <c r="A8" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B8" s="6">
         <v>4.5</v>
@@ -844,297 +842,297 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19">
-      <c r="A9" s="12" t="s">
-        <v>41</v>
+      <c r="A9" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B9" s="6">
         <v>0.5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19">
-      <c r="A10" s="12" t="s">
-        <v>41</v>
+      <c r="A10" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="6">
         <v>1.5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19">
-      <c r="A11" s="12" t="s">
-        <v>41</v>
+      <c r="A11" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B11" s="6">
         <v>4.5</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>16</v>
+      <c r="E11" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19">
-      <c r="A12" s="11" t="s">
-        <v>42</v>
+      <c r="A12" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="6">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19">
-      <c r="A13" s="11" t="s">
-        <v>42</v>
+      <c r="A13" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B13" s="6">
         <v>3.5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19">
-      <c r="A14" s="11" t="s">
-        <v>42</v>
+      <c r="A14" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B14" s="6">
         <v>1.5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19">
-      <c r="A15" s="11" t="s">
-        <v>42</v>
+      <c r="A15" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B15" s="6">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19">
-      <c r="A16" s="11" t="s">
-        <v>42</v>
+      <c r="A16" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B16" s="6">
         <v>3.5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="19">
-      <c r="A17" s="11" t="s">
-        <v>43</v>
+      <c r="A17" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B17" s="6">
         <v>2.5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19">
-      <c r="A18" s="11" t="s">
-        <v>43</v>
+      <c r="A18" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B18" s="6">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="19">
-      <c r="A19" s="11" t="s">
-        <v>43</v>
+      <c r="A19" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19">
-      <c r="A20" s="11" t="s">
-        <v>43</v>
+      <c r="A20" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="6">
         <v>3.5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="19">
-      <c r="A21" s="11" t="s">
-        <v>43</v>
+      <c r="A21" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B21" s="8">
         <v>0</v>
@@ -1145,19 +1143,19 @@
       <c r="D21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>16</v>
+      <c r="E21" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="19">
-      <c r="A22" s="11" t="s">
-        <v>44</v>
+      <c r="A22" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B22" s="6">
         <v>3</v>
@@ -1166,44 +1164,44 @@
         <v>4</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19">
+      <c r="A23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="19">
-      <c r="A23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="6">
-        <v>4</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>10</v>
+      <c r="E23" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="19">
-      <c r="A24" s="11" t="s">
-        <v>44</v>
+      <c r="A24" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
@@ -1212,21 +1210,21 @@
         <v>4</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="19">
-      <c r="A25" s="11" t="s">
-        <v>44</v>
+      <c r="A25" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B25" s="6">
         <v>3</v>
@@ -1235,21 +1233,21 @@
         <v>4</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="19">
-      <c r="A26" s="11" t="s">
-        <v>44</v>
+      <c r="A26" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B26" s="6">
         <v>2</v>
@@ -1258,21 +1256,21 @@
         <v>4</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="19">
-      <c r="A27" s="11" t="s">
-        <v>45</v>
+      <c r="A27" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
@@ -1281,108 +1279,108 @@
         <v>4</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="19">
-      <c r="A28" s="11" t="s">
-        <v>45</v>
+      <c r="A28" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B28" s="6">
         <v>4.5</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="19">
-      <c r="A29" s="11" t="s">
-        <v>45</v>
+      <c r="A29" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19">
+      <c r="A30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="6">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="19">
-      <c r="A30" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="6">
-        <v>4</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>14</v>
+      <c r="E30" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="19">
-      <c r="A31" s="11" t="s">
-        <v>45</v>
+      <c r="A31" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
